--- a/dy_qT/expdata/90002.xlsx
+++ b/dy_qT/expdata/90002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B95D9B51-93F7-9F4A-8A33-6540201B71BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8B5C2325-B91F-8445-8C82-726F7D9429BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1020" windowWidth="28040" windowHeight="17440"/>
   </bookViews>

--- a/dy_qT/expdata/90002.xlsx
+++ b/dy_qT/expdata/90002.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8B5C2325-B91F-8445-8C82-726F7D9429BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0C4B0-F6CD-2548-BF24-9CB3D5EE2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1020" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="860" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDF1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -123,13 +112,13 @@
     <t>sys +</t>
   </si>
   <si>
-    <t>sys,luminosity uncertainty +</t>
+    <t>%norm_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -965,14 +954,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51:Y83"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1067,11 +1057,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>-1000</v>
-      </c>
-      <c r="G2">
-        <v>1000</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -1103,11 +1093,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>-1000</v>
-      </c>
-      <c r="S2">
-        <v>1000</v>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>17</v>
@@ -1144,11 +1134,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>-1000</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.75</v>
@@ -1180,11 +1170,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>-1000</v>
-      </c>
-      <c r="S3">
-        <v>1000</v>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>17</v>
@@ -1221,11 +1211,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>-1000</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1.25</v>
@@ -1257,11 +1247,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>-1000</v>
-      </c>
-      <c r="S4">
-        <v>1000</v>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>17</v>
@@ -1298,11 +1288,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>-1000</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1.75</v>
@@ -1334,11 +1324,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>-1000</v>
-      </c>
-      <c r="S5">
-        <v>1000</v>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>17</v>
@@ -1375,11 +1365,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>-1000</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="H6">
         <v>2.25</v>
@@ -1411,11 +1401,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>-1000</v>
-      </c>
-      <c r="S6">
-        <v>1000</v>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
       </c>
       <c r="T6" t="s">
         <v>17</v>
@@ -1452,11 +1442,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>-1000</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>2.75</v>
@@ -1488,11 +1478,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>-1000</v>
-      </c>
-      <c r="S7">
-        <v>1000</v>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
       </c>
       <c r="T7" t="s">
         <v>17</v>
@@ -1529,11 +1519,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>-1000</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>3.25</v>
@@ -1565,11 +1555,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>-1000</v>
-      </c>
-      <c r="S8">
-        <v>1000</v>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
       </c>
       <c r="T8" t="s">
         <v>17</v>
@@ -1606,11 +1596,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>-1000</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>3.75</v>
@@ -1642,11 +1632,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>-1000</v>
-      </c>
-      <c r="S9">
-        <v>1000</v>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
       </c>
       <c r="T9" t="s">
         <v>17</v>
@@ -1683,11 +1673,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>-1000</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="H10">
         <v>4.25</v>
@@ -1719,11 +1709,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>-1000</v>
-      </c>
-      <c r="S10">
-        <v>1000</v>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
       </c>
       <c r="T10" t="s">
         <v>17</v>
@@ -1760,11 +1750,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>-1000</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11">
         <v>4.75</v>
@@ -1796,11 +1786,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>-1000</v>
-      </c>
-      <c r="S11">
-        <v>1000</v>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
       </c>
       <c r="T11" t="s">
         <v>17</v>
@@ -1837,11 +1827,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>-1000</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>5.25</v>
@@ -1873,11 +1863,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>-1000</v>
-      </c>
-      <c r="S12">
-        <v>1000</v>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
       </c>
       <c r="T12" t="s">
         <v>17</v>
@@ -1914,11 +1904,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>-1000</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="H13">
         <v>5.75</v>
@@ -1950,11 +1940,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>-1000</v>
-      </c>
-      <c r="S13">
-        <v>1000</v>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
       </c>
       <c r="T13" t="s">
         <v>17</v>
@@ -1991,11 +1981,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>-1000</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="H14">
         <v>6.25</v>
@@ -2027,11 +2017,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>-1000</v>
-      </c>
-      <c r="S14">
-        <v>1000</v>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
       </c>
       <c r="T14" t="s">
         <v>17</v>
@@ -2068,11 +2058,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>-1000</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
       <c r="H15">
         <v>6.75</v>
@@ -2104,11 +2094,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>-1000</v>
-      </c>
-      <c r="S15">
-        <v>1000</v>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
       </c>
       <c r="T15" t="s">
         <v>17</v>
@@ -2145,11 +2135,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>-1000</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
       <c r="H16">
         <v>7.25</v>
@@ -2181,11 +2171,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>-1000</v>
-      </c>
-      <c r="S16">
-        <v>1000</v>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
       </c>
       <c r="T16" t="s">
         <v>17</v>
@@ -2222,11 +2212,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>-1000</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
       </c>
       <c r="H17">
         <v>7.75</v>
@@ -2258,11 +2248,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>-1000</v>
-      </c>
-      <c r="S17">
-        <v>1000</v>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
       </c>
       <c r="T17" t="s">
         <v>17</v>
@@ -2299,11 +2289,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>-1000</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
       <c r="H18">
         <v>8.25</v>
@@ -2335,11 +2325,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>-1000</v>
-      </c>
-      <c r="S18">
-        <v>1000</v>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
       </c>
       <c r="T18" t="s">
         <v>17</v>
@@ -2376,11 +2366,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>-1000</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
       <c r="H19">
         <v>8.75</v>
@@ -2412,11 +2402,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>-1000</v>
-      </c>
-      <c r="S19">
-        <v>1000</v>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
       </c>
       <c r="T19" t="s">
         <v>17</v>
@@ -2453,11 +2443,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>-1000</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>9.25</v>
@@ -2489,11 +2479,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>-1000</v>
-      </c>
-      <c r="S20">
-        <v>1000</v>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
       </c>
       <c r="T20" t="s">
         <v>17</v>
@@ -2530,11 +2520,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>-1000</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
       <c r="H21">
         <v>9.75</v>
@@ -2566,11 +2556,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>-1000</v>
-      </c>
-      <c r="S21">
-        <v>1000</v>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
       </c>
       <c r="T21" t="s">
         <v>17</v>
@@ -2607,11 +2597,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>-1000</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
       </c>
       <c r="H22">
         <v>10.25</v>
@@ -2643,11 +2633,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>-1000</v>
-      </c>
-      <c r="S22">
-        <v>1000</v>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
       </c>
       <c r="T22" t="s">
         <v>17</v>
@@ -2684,11 +2674,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>-1000</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
       <c r="H23">
         <v>10.75</v>
@@ -2720,11 +2710,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>-1000</v>
-      </c>
-      <c r="S23">
-        <v>1000</v>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
       </c>
       <c r="T23" t="s">
         <v>17</v>
@@ -2761,11 +2751,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>-1000</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
       </c>
       <c r="H24">
         <v>11.25</v>
@@ -2797,11 +2787,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>-1000</v>
-      </c>
-      <c r="S24">
-        <v>1000</v>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
       </c>
       <c r="T24" t="s">
         <v>17</v>
@@ -2838,11 +2828,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>-1000</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
       <c r="H25">
         <v>11.75</v>
@@ -2874,11 +2864,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>-1000</v>
-      </c>
-      <c r="S25">
-        <v>1000</v>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
       </c>
       <c r="T25" t="s">
         <v>17</v>
@@ -2915,11 +2905,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>-1000</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
       <c r="H26">
         <v>12.25</v>
@@ -2951,11 +2941,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26">
-        <v>-1000</v>
-      </c>
-      <c r="S26">
-        <v>1000</v>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
       </c>
       <c r="T26" t="s">
         <v>17</v>
@@ -2992,11 +2982,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>-1000</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
       <c r="H27">
         <v>12.75</v>
@@ -3028,11 +3018,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>-1000</v>
-      </c>
-      <c r="S27">
-        <v>1000</v>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
       </c>
       <c r="T27" t="s">
         <v>17</v>
@@ -3069,11 +3059,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>-1000</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
       </c>
       <c r="H28">
         <v>13.25</v>
@@ -3105,11 +3095,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28">
-        <v>-1000</v>
-      </c>
-      <c r="S28">
-        <v>1000</v>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>17</v>
@@ -3146,11 +3136,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
-        <v>-1000</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
       </c>
       <c r="H29">
         <v>13.75</v>
@@ -3182,11 +3172,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29">
-        <v>-1000</v>
-      </c>
-      <c r="S29">
-        <v>1000</v>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <v>0</v>
       </c>
       <c r="T29" t="s">
         <v>17</v>
@@ -3223,11 +3213,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
-        <v>-1000</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
       </c>
       <c r="H30">
         <v>14.25</v>
@@ -3259,11 +3249,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30">
-        <v>-1000</v>
-      </c>
-      <c r="S30">
-        <v>1000</v>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
       </c>
       <c r="T30" t="s">
         <v>17</v>
@@ -3300,11 +3290,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
-        <v>-1000</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
       </c>
       <c r="H31">
         <v>14.75</v>
@@ -3336,11 +3326,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31">
-        <v>-1000</v>
-      </c>
-      <c r="S31">
-        <v>1000</v>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>0</v>
       </c>
       <c r="T31" t="s">
         <v>17</v>
@@ -3377,11 +3367,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>-1000</v>
-      </c>
-      <c r="G32">
-        <v>1000</v>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
       </c>
       <c r="H32">
         <v>15.25</v>
@@ -3413,11 +3403,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32">
-        <v>-1000</v>
-      </c>
-      <c r="S32">
-        <v>1000</v>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <v>0</v>
       </c>
       <c r="T32" t="s">
         <v>17</v>
@@ -3454,11 +3444,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>-1000</v>
-      </c>
-      <c r="G33">
-        <v>1000</v>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
       </c>
       <c r="H33">
         <v>15.75</v>
@@ -3490,11 +3480,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33">
-        <v>-1000</v>
-      </c>
-      <c r="S33">
-        <v>1000</v>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" t="b">
+        <v>0</v>
       </c>
       <c r="T33" t="s">
         <v>17</v>
@@ -3531,11 +3521,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>-1000</v>
-      </c>
-      <c r="G34">
-        <v>1000</v>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
       </c>
       <c r="H34">
         <v>16.25</v>
@@ -3567,11 +3557,11 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34">
-        <v>-1000</v>
-      </c>
-      <c r="S34">
-        <v>1000</v>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" t="b">
+        <v>0</v>
       </c>
       <c r="T34" t="s">
         <v>17</v>
@@ -3608,11 +3598,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>-1000</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
       </c>
       <c r="H35">
         <v>16.75</v>
@@ -3644,11 +3634,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35">
-        <v>-1000</v>
-      </c>
-      <c r="S35">
-        <v>1000</v>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
       </c>
       <c r="T35" t="s">
         <v>17</v>
@@ -3685,11 +3675,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>-1000</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
       </c>
       <c r="H36">
         <v>17.25</v>
@@ -3721,11 +3711,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36">
-        <v>-1000</v>
-      </c>
-      <c r="S36">
-        <v>1000</v>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <v>0</v>
       </c>
       <c r="T36" t="s">
         <v>17</v>
@@ -3762,11 +3752,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
-        <v>-1000</v>
-      </c>
-      <c r="G37">
-        <v>1000</v>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
       </c>
       <c r="H37">
         <v>17.75</v>
@@ -3798,11 +3788,11 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37">
-        <v>-1000</v>
-      </c>
-      <c r="S37">
-        <v>1000</v>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
       </c>
       <c r="T37" t="s">
         <v>17</v>
@@ -3839,11 +3829,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>-1000</v>
-      </c>
-      <c r="G38">
-        <v>1000</v>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
       </c>
       <c r="H38">
         <v>18.25</v>
@@ -3875,11 +3865,11 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38">
-        <v>-1000</v>
-      </c>
-      <c r="S38">
-        <v>1000</v>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
       </c>
       <c r="T38" t="s">
         <v>17</v>
@@ -3916,11 +3906,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>-1000</v>
-      </c>
-      <c r="G39">
-        <v>1000</v>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
       </c>
       <c r="H39">
         <v>18.75</v>
@@ -3952,11 +3942,11 @@
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>-1000</v>
-      </c>
-      <c r="S39">
-        <v>1000</v>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
       </c>
       <c r="T39" t="s">
         <v>17</v>
@@ -3993,11 +3983,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>-1000</v>
-      </c>
-      <c r="G40">
-        <v>1000</v>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
       </c>
       <c r="H40">
         <v>19.25</v>
@@ -4029,11 +4019,11 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40">
-        <v>-1000</v>
-      </c>
-      <c r="S40">
-        <v>1000</v>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
       </c>
       <c r="T40" t="s">
         <v>17</v>
@@ -4070,11 +4060,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>-1000</v>
-      </c>
-      <c r="G41">
-        <v>1000</v>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
       </c>
       <c r="H41">
         <v>19.75</v>
@@ -4106,11 +4096,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41">
-        <v>-1000</v>
-      </c>
-      <c r="S41">
-        <v>1000</v>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
       </c>
       <c r="T41" t="s">
         <v>17</v>
@@ -4147,11 +4137,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>-1000</v>
-      </c>
-      <c r="G42">
-        <v>1000</v>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
       </c>
       <c r="H42">
         <v>20.25</v>
@@ -4183,11 +4173,11 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>-1000</v>
-      </c>
-      <c r="S42">
-        <v>1000</v>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
       </c>
       <c r="T42" t="s">
         <v>17</v>
@@ -4224,11 +4214,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>-1000</v>
-      </c>
-      <c r="G43">
-        <v>1000</v>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
       </c>
       <c r="H43">
         <v>20.75</v>
@@ -4260,11 +4250,11 @@
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43">
-        <v>-1000</v>
-      </c>
-      <c r="S43">
-        <v>1000</v>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
       </c>
       <c r="T43" t="s">
         <v>17</v>
@@ -4301,11 +4291,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>-1000</v>
-      </c>
-      <c r="G44">
-        <v>1000</v>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
       </c>
       <c r="H44">
         <v>21.25</v>
@@ -4337,11 +4327,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44">
-        <v>-1000</v>
-      </c>
-      <c r="S44">
-        <v>1000</v>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
       </c>
       <c r="T44" t="s">
         <v>17</v>
@@ -4378,11 +4368,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45">
-        <v>-1000</v>
-      </c>
-      <c r="G45">
-        <v>1000</v>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
       </c>
       <c r="H45">
         <v>21.75</v>
@@ -4414,11 +4404,11 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45">
-        <v>-1000</v>
-      </c>
-      <c r="S45">
-        <v>1000</v>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <v>0</v>
       </c>
       <c r="T45" t="s">
         <v>17</v>
@@ -4455,11 +4445,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>-1000</v>
-      </c>
-      <c r="G46">
-        <v>1000</v>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
       </c>
       <c r="H46">
         <v>22.25</v>
@@ -4491,11 +4481,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46">
-        <v>-1000</v>
-      </c>
-      <c r="S46">
-        <v>1000</v>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
       </c>
       <c r="T46" t="s">
         <v>17</v>
@@ -4532,11 +4522,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
-        <v>-1000</v>
-      </c>
-      <c r="G47">
-        <v>1000</v>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
       </c>
       <c r="H47">
         <v>22.75</v>
@@ -4568,11 +4558,11 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47">
-        <v>-1000</v>
-      </c>
-      <c r="S47">
-        <v>1000</v>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
       </c>
       <c r="T47" t="s">
         <v>17</v>
@@ -4609,11 +4599,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>-1000</v>
-      </c>
-      <c r="G48">
-        <v>1000</v>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
       </c>
       <c r="H48">
         <v>23.25</v>
@@ -4645,11 +4635,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48">
-        <v>-1000</v>
-      </c>
-      <c r="S48">
-        <v>1000</v>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
       </c>
       <c r="T48" t="s">
         <v>17</v>
@@ -4686,11 +4676,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>-1000</v>
-      </c>
-      <c r="G49">
-        <v>1000</v>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
       </c>
       <c r="H49">
         <v>23.75</v>
@@ -4722,11 +4712,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49">
-        <v>-1000</v>
-      </c>
-      <c r="S49">
-        <v>1000</v>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
       </c>
       <c r="T49" t="s">
         <v>17</v>
@@ -4763,11 +4753,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50">
-        <v>-1000</v>
-      </c>
-      <c r="G50">
-        <v>1000</v>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
       </c>
       <c r="H50">
         <v>24.25</v>
@@ -4799,11 +4789,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50">
-        <v>-1000</v>
-      </c>
-      <c r="S50">
-        <v>1000</v>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <v>0</v>
       </c>
       <c r="T50" t="s">
         <v>17</v>
@@ -4840,11 +4830,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
-        <v>-1000</v>
-      </c>
-      <c r="G51">
-        <v>1000</v>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
       </c>
       <c r="H51">
         <v>24.75</v>
@@ -4876,11 +4866,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51">
-        <v>-1000</v>
-      </c>
-      <c r="S51">
-        <v>1000</v>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" t="b">
+        <v>0</v>
       </c>
       <c r="T51" t="s">
         <v>17</v>
@@ -4917,11 +4907,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>-1000</v>
-      </c>
-      <c r="G52">
-        <v>1000</v>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
       </c>
       <c r="H52">
         <v>25.5</v>
@@ -4953,11 +4943,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52">
-        <v>-1000</v>
-      </c>
-      <c r="S52">
-        <v>1000</v>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <v>0</v>
       </c>
       <c r="T52" t="s">
         <v>17</v>
@@ -4994,11 +4984,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
-        <v>-1000</v>
-      </c>
-      <c r="G53">
-        <v>1000</v>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
       </c>
       <c r="H53">
         <v>26.5</v>
@@ -5030,11 +5020,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53">
-        <v>-1000</v>
-      </c>
-      <c r="S53">
-        <v>1000</v>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
       </c>
       <c r="T53" t="s">
         <v>17</v>
@@ -5071,11 +5061,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54">
-        <v>-1000</v>
-      </c>
-      <c r="G54">
-        <v>1000</v>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
       </c>
       <c r="H54">
         <v>27.5</v>
@@ -5107,11 +5097,11 @@
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>-1000</v>
-      </c>
-      <c r="S54">
-        <v>1000</v>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
       </c>
       <c r="T54" t="s">
         <v>17</v>
@@ -5148,11 +5138,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>-1000</v>
-      </c>
-      <c r="G55">
-        <v>1000</v>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
       </c>
       <c r="H55">
         <v>28.5</v>
@@ -5184,11 +5174,11 @@
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55">
-        <v>-1000</v>
-      </c>
-      <c r="S55">
-        <v>1000</v>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
+        <v>0</v>
       </c>
       <c r="T55" t="s">
         <v>17</v>
@@ -5225,11 +5215,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56">
-        <v>-1000</v>
-      </c>
-      <c r="G56">
-        <v>1000</v>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
       </c>
       <c r="H56">
         <v>29.5</v>
@@ -5261,11 +5251,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56">
-        <v>-1000</v>
-      </c>
-      <c r="S56">
-        <v>1000</v>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" t="b">
+        <v>0</v>
       </c>
       <c r="T56" t="s">
         <v>17</v>
@@ -5302,11 +5292,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
-        <v>-1000</v>
-      </c>
-      <c r="G57">
-        <v>1000</v>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
       </c>
       <c r="H57">
         <v>31</v>
@@ -5338,11 +5328,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57">
-        <v>-1000</v>
-      </c>
-      <c r="S57">
-        <v>1000</v>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57" t="b">
+        <v>0</v>
       </c>
       <c r="T57" t="s">
         <v>17</v>
@@ -5379,11 +5369,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
-        <v>-1000</v>
-      </c>
-      <c r="G58">
-        <v>1000</v>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
       </c>
       <c r="H58">
         <v>33</v>
@@ -5415,11 +5405,11 @@
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58">
-        <v>-1000</v>
-      </c>
-      <c r="S58">
-        <v>1000</v>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58" t="b">
+        <v>0</v>
       </c>
       <c r="T58" t="s">
         <v>17</v>
@@ -5456,11 +5446,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
-        <v>-1000</v>
-      </c>
-      <c r="G59">
-        <v>1000</v>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
       </c>
       <c r="H59">
         <v>35</v>
@@ -5492,11 +5482,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59">
-        <v>-1000</v>
-      </c>
-      <c r="S59">
-        <v>1000</v>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <v>0</v>
       </c>
       <c r="T59" t="s">
         <v>17</v>
@@ -5533,11 +5523,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
-        <v>-1000</v>
-      </c>
-      <c r="G60">
-        <v>1000</v>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
       </c>
       <c r="H60">
         <v>37</v>
@@ -5569,11 +5559,11 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60">
-        <v>-1000</v>
-      </c>
-      <c r="S60">
-        <v>1000</v>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <v>0</v>
       </c>
       <c r="T60" t="s">
         <v>17</v>
@@ -5610,11 +5600,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61">
-        <v>-1000</v>
-      </c>
-      <c r="G61">
-        <v>1000</v>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
       </c>
       <c r="H61">
         <v>39</v>
@@ -5646,11 +5636,11 @@
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61">
-        <v>-1000</v>
-      </c>
-      <c r="S61">
-        <v>1000</v>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <v>0</v>
       </c>
       <c r="T61" t="s">
         <v>17</v>
@@ -5687,11 +5677,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62">
-        <v>-1000</v>
-      </c>
-      <c r="G62">
-        <v>1000</v>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
       </c>
       <c r="H62">
         <v>42</v>
@@ -5723,11 +5713,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62">
-        <v>-1000</v>
-      </c>
-      <c r="S62">
-        <v>1000</v>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+      <c r="S62" t="b">
+        <v>0</v>
       </c>
       <c r="T62" t="s">
         <v>17</v>
@@ -5764,11 +5754,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
-        <v>-1000</v>
-      </c>
-      <c r="G63">
-        <v>1000</v>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
       </c>
       <c r="H63">
         <v>46</v>
@@ -5800,11 +5790,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63">
-        <v>-1000</v>
-      </c>
-      <c r="S63">
-        <v>1000</v>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63" t="b">
+        <v>0</v>
       </c>
       <c r="T63" t="s">
         <v>17</v>
@@ -5841,11 +5831,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64">
-        <v>-1000</v>
-      </c>
-      <c r="G64">
-        <v>1000</v>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
       </c>
       <c r="H64">
         <v>50</v>
@@ -5877,11 +5867,11 @@
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64">
-        <v>-1000</v>
-      </c>
-      <c r="S64">
-        <v>1000</v>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64" t="b">
+        <v>0</v>
       </c>
       <c r="T64" t="s">
         <v>17</v>
@@ -5918,11 +5908,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65">
-        <v>-1000</v>
-      </c>
-      <c r="G65">
-        <v>1000</v>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
       </c>
       <c r="H65">
         <v>54</v>
@@ -5954,11 +5944,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65">
-        <v>-1000</v>
-      </c>
-      <c r="S65">
-        <v>1000</v>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65" t="b">
+        <v>0</v>
       </c>
       <c r="T65" t="s">
         <v>17</v>
@@ -5995,11 +5985,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66">
-        <v>-1000</v>
-      </c>
-      <c r="G66">
-        <v>1000</v>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
       </c>
       <c r="H66">
         <v>58</v>
@@ -6031,11 +6021,11 @@
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66">
-        <v>-1000</v>
-      </c>
-      <c r="S66">
-        <v>1000</v>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66" t="b">
+        <v>0</v>
       </c>
       <c r="T66" t="s">
         <v>17</v>
@@ -6072,11 +6062,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67">
-        <v>-1000</v>
-      </c>
-      <c r="G67">
-        <v>1000</v>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
       </c>
       <c r="H67">
         <v>62.5</v>
@@ -6108,11 +6098,11 @@
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67">
-        <v>-1000</v>
-      </c>
-      <c r="S67">
-        <v>1000</v>
+      <c r="R67" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67" t="b">
+        <v>0</v>
       </c>
       <c r="T67" t="s">
         <v>17</v>
@@ -6149,11 +6139,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
-        <v>-1000</v>
-      </c>
-      <c r="G68">
-        <v>1000</v>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
       </c>
       <c r="H68">
         <v>67.5</v>
@@ -6185,11 +6175,11 @@
       <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68">
-        <v>-1000</v>
-      </c>
-      <c r="S68">
-        <v>1000</v>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68" t="b">
+        <v>0</v>
       </c>
       <c r="T68" t="s">
         <v>17</v>
@@ -6226,11 +6216,11 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69">
-        <v>-1000</v>
-      </c>
-      <c r="G69">
-        <v>1000</v>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
       </c>
       <c r="H69">
         <v>72.5</v>
@@ -6262,11 +6252,11 @@
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69">
-        <v>-1000</v>
-      </c>
-      <c r="S69">
-        <v>1000</v>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69" t="b">
+        <v>0</v>
       </c>
       <c r="T69" t="s">
         <v>17</v>
@@ -6303,11 +6293,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70">
-        <v>-1000</v>
-      </c>
-      <c r="G70">
-        <v>1000</v>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
       </c>
       <c r="H70">
         <v>77.5</v>
@@ -6339,11 +6329,11 @@
       <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70">
-        <v>-1000</v>
-      </c>
-      <c r="S70">
-        <v>1000</v>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70" t="b">
+        <v>0</v>
       </c>
       <c r="T70" t="s">
         <v>17</v>
@@ -6380,11 +6370,11 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
-        <v>-1000</v>
-      </c>
-      <c r="G71">
-        <v>1000</v>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
       </c>
       <c r="H71">
         <v>82.5</v>
@@ -6416,11 +6406,11 @@
       <c r="Q71">
         <v>0</v>
       </c>
-      <c r="R71">
-        <v>-1000</v>
-      </c>
-      <c r="S71">
-        <v>1000</v>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" t="b">
+        <v>0</v>
       </c>
       <c r="T71" t="s">
         <v>17</v>
@@ -6457,11 +6447,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
-        <v>-1000</v>
-      </c>
-      <c r="G72">
-        <v>1000</v>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
       </c>
       <c r="H72">
         <v>87.5</v>
@@ -6493,11 +6483,11 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>-1000</v>
-      </c>
-      <c r="S72">
-        <v>1000</v>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72" t="b">
+        <v>0</v>
       </c>
       <c r="T72" t="s">
         <v>17</v>
@@ -6534,11 +6524,11 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73">
-        <v>-1000</v>
-      </c>
-      <c r="G73">
-        <v>1000</v>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
       </c>
       <c r="H73">
         <v>92.5</v>
@@ -6570,11 +6560,11 @@
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>-1000</v>
-      </c>
-      <c r="S73">
-        <v>1000</v>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+      <c r="S73" t="b">
+        <v>0</v>
       </c>
       <c r="T73" t="s">
         <v>17</v>
@@ -6611,11 +6601,11 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74">
-        <v>-1000</v>
-      </c>
-      <c r="G74">
-        <v>1000</v>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
       </c>
       <c r="H74">
         <v>97.5</v>
@@ -6647,11 +6637,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74">
-        <v>-1000</v>
-      </c>
-      <c r="S74">
-        <v>1000</v>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" t="b">
+        <v>0</v>
       </c>
       <c r="T74" t="s">
         <v>17</v>
@@ -6688,11 +6678,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75">
-        <v>-1000</v>
-      </c>
-      <c r="G75">
-        <v>1000</v>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
       </c>
       <c r="H75">
         <v>105</v>
@@ -6724,11 +6714,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75">
-        <v>-1000</v>
-      </c>
-      <c r="S75">
-        <v>1000</v>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" t="b">
+        <v>0</v>
       </c>
       <c r="T75" t="s">
         <v>17</v>
@@ -6765,11 +6755,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76">
-        <v>-1000</v>
-      </c>
-      <c r="G76">
-        <v>1000</v>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
       </c>
       <c r="H76">
         <v>115</v>
@@ -6801,11 +6791,11 @@
       <c r="Q76">
         <v>0</v>
       </c>
-      <c r="R76">
-        <v>-1000</v>
-      </c>
-      <c r="S76">
-        <v>1000</v>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" t="b">
+        <v>0</v>
       </c>
       <c r="T76" t="s">
         <v>17</v>
@@ -6842,11 +6832,11 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77">
-        <v>-1000</v>
-      </c>
-      <c r="G77">
-        <v>1000</v>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
       </c>
       <c r="H77">
         <v>125</v>
@@ -6878,11 +6868,11 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77">
-        <v>-1000</v>
-      </c>
-      <c r="S77">
-        <v>1000</v>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" t="b">
+        <v>0</v>
       </c>
       <c r="T77" t="s">
         <v>17</v>
@@ -6919,11 +6909,11 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78">
-        <v>-1000</v>
-      </c>
-      <c r="G78">
-        <v>1000</v>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
       </c>
       <c r="H78">
         <v>135</v>
@@ -6955,11 +6945,11 @@
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="R78">
-        <v>-1000</v>
-      </c>
-      <c r="S78">
-        <v>1000</v>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78" t="b">
+        <v>0</v>
       </c>
       <c r="T78" t="s">
         <v>17</v>
@@ -6996,11 +6986,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79">
-        <v>-1000</v>
-      </c>
-      <c r="G79">
-        <v>1000</v>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
       </c>
       <c r="H79">
         <v>145</v>
@@ -7032,11 +7022,11 @@
       <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79">
-        <v>-1000</v>
-      </c>
-      <c r="S79">
-        <v>1000</v>
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <v>0</v>
       </c>
       <c r="T79" t="s">
         <v>17</v>
@@ -7073,11 +7063,11 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80">
-        <v>-1000</v>
-      </c>
-      <c r="G80">
-        <v>1000</v>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
       </c>
       <c r="H80">
         <v>162.5</v>
@@ -7109,11 +7099,11 @@
       <c r="Q80">
         <v>0</v>
       </c>
-      <c r="R80">
-        <v>-1000</v>
-      </c>
-      <c r="S80">
-        <v>1000</v>
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <v>0</v>
       </c>
       <c r="T80" t="s">
         <v>17</v>
@@ -7150,11 +7140,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81">
-        <v>-1000</v>
-      </c>
-      <c r="G81">
-        <v>1000</v>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
       </c>
       <c r="H81">
         <v>187.5</v>
@@ -7186,11 +7176,11 @@
       <c r="Q81">
         <v>0</v>
       </c>
-      <c r="R81">
-        <v>-1000</v>
-      </c>
-      <c r="S81">
-        <v>1000</v>
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <v>0</v>
       </c>
       <c r="T81" t="s">
         <v>17</v>
@@ -7227,11 +7217,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82">
-        <v>-1000</v>
-      </c>
-      <c r="G82">
-        <v>1000</v>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
       </c>
       <c r="H82">
         <v>225</v>
@@ -7263,11 +7253,11 @@
       <c r="Q82">
         <v>0</v>
       </c>
-      <c r="R82">
-        <v>-1000</v>
-      </c>
-      <c r="S82">
-        <v>1000</v>
+      <c r="R82" t="b">
+        <v>0</v>
+      </c>
+      <c r="S82" t="b">
+        <v>0</v>
       </c>
       <c r="T82" t="s">
         <v>17</v>
@@ -7304,11 +7294,11 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83">
-        <v>-1000</v>
-      </c>
-      <c r="G83">
-        <v>1000</v>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
       </c>
       <c r="H83">
         <v>300</v>
@@ -7340,11 +7330,11 @@
       <c r="Q83">
         <v>0</v>
       </c>
-      <c r="R83">
-        <v>-1000</v>
-      </c>
-      <c r="S83">
-        <v>1000</v>
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+      <c r="S83" t="b">
+        <v>0</v>
       </c>
       <c r="T83" t="s">
         <v>17</v>

--- a/dy_qT/expdata/90002.xlsx
+++ b/dy_qT/expdata/90002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0C4B0-F6CD-2548-BF24-9CB3D5EE2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778AFDA0-2202-4C4D-B7F2-3CC13F4E335D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -957,11 +957,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -1004,7 +1006,7 @@
       <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O1" t="s">
@@ -1081,8 +1083,8 @@
       <c r="M2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N2" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N2" s="2">
+        <v>5.8</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -1158,8 +1160,8 @@
       <c r="M3">
         <v>0.1</v>
       </c>
-      <c r="N3" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N3" s="2">
+        <v>5.8</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -1235,8 +1237,8 @@
       <c r="M4">
         <v>0.15</v>
       </c>
-      <c r="N4" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N4" s="2">
+        <v>5.8</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1312,8 +1314,8 @@
       <c r="M5">
         <v>0.19</v>
       </c>
-      <c r="N5" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N5" s="2">
+        <v>5.8</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1389,8 +1391,8 @@
       <c r="M6">
         <v>0.21</v>
       </c>
-      <c r="N6" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N6" s="2">
+        <v>5.8</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1466,8 +1468,8 @@
       <c r="M7">
         <v>0.23</v>
       </c>
-      <c r="N7" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N7" s="2">
+        <v>5.8</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1543,8 +1545,8 @@
       <c r="M8">
         <v>0.22</v>
       </c>
-      <c r="N8" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N8" s="2">
+        <v>5.8</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1620,8 +1622,8 @@
       <c r="M9">
         <v>0.22</v>
       </c>
-      <c r="N9" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N9" s="2">
+        <v>5.8</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1697,8 +1699,8 @@
       <c r="M10">
         <v>0.21</v>
       </c>
-      <c r="N10" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N10" s="2">
+        <v>5.8</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1774,8 +1776,8 @@
       <c r="M11">
         <v>0.2</v>
       </c>
-      <c r="N11" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N11" s="2">
+        <v>5.8</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1851,8 +1853,8 @@
       <c r="M12">
         <v>0.19</v>
       </c>
-      <c r="N12" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N12" s="2">
+        <v>5.8</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1928,8 +1930,8 @@
       <c r="M13">
         <v>0.17</v>
       </c>
-      <c r="N13" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N13" s="2">
+        <v>5.8</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -2005,8 +2007,8 @@
       <c r="M14">
         <v>0.16</v>
       </c>
-      <c r="N14" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N14" s="2">
+        <v>5.8</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -2082,8 +2084,8 @@
       <c r="M15">
         <v>0.15</v>
       </c>
-      <c r="N15" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N15" s="2">
+        <v>5.8</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -2159,8 +2161,8 @@
       <c r="M16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N16" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N16" s="2">
+        <v>5.8</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -2236,8 +2238,8 @@
       <c r="M17">
         <v>0.13</v>
       </c>
-      <c r="N17" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N17" s="2">
+        <v>5.8</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -2313,8 +2315,8 @@
       <c r="M18">
         <v>0.12</v>
       </c>
-      <c r="N18" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N18" s="2">
+        <v>5.8</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -2390,8 +2392,8 @@
       <c r="M19">
         <v>0.11</v>
       </c>
-      <c r="N19" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N19" s="2">
+        <v>5.8</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -2467,8 +2469,8 @@
       <c r="M20">
         <v>0.11</v>
       </c>
-      <c r="N20" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N20" s="2">
+        <v>5.8</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -2544,8 +2546,8 @@
       <c r="M21">
         <v>0.11</v>
       </c>
-      <c r="N21" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N21" s="2">
+        <v>5.8</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -2621,8 +2623,8 @@
       <c r="M22">
         <v>9.4E-2</v>
       </c>
-      <c r="N22" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N22" s="2">
+        <v>5.8</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2698,8 +2700,8 @@
       <c r="M23">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="N23" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N23" s="2">
+        <v>5.8</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2775,8 +2777,8 @@
       <c r="M24">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N24" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N24" s="2">
+        <v>5.8</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2852,8 +2854,8 @@
       <c r="M25">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="N25" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N25" s="2">
+        <v>5.8</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -2929,8 +2931,8 @@
       <c r="M26">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N26" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N26" s="2">
+        <v>5.8</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -3006,8 +3008,8 @@
       <c r="M27">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N27" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N27" s="2">
+        <v>5.8</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -3083,8 +3085,8 @@
       <c r="M28">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N28" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N28" s="2">
+        <v>5.8</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -3160,8 +3162,8 @@
       <c r="M29">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N29" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N29" s="2">
+        <v>5.8</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -3237,8 +3239,8 @@
       <c r="M30">
         <v>0.06</v>
       </c>
-      <c r="N30" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N30" s="2">
+        <v>5.8</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
@@ -3314,8 +3316,8 @@
       <c r="M31">
         <v>5.5E-2</v>
       </c>
-      <c r="N31" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N31" s="2">
+        <v>5.8</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -3391,8 +3393,8 @@
       <c r="M32">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="N32" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N32" s="2">
+        <v>5.8</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -3468,8 +3470,8 @@
       <c r="M33">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="N33" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N33" s="2">
+        <v>5.8</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -3545,8 +3547,8 @@
       <c r="M34">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N34" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N34" s="2">
+        <v>5.8</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -3622,8 +3624,8 @@
       <c r="M35">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N35" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N35" s="2">
+        <v>5.8</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -3699,8 +3701,8 @@
       <c r="M36">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N36" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N36" s="2">
+        <v>5.8</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -3776,8 +3778,8 @@
       <c r="M37">
         <v>0.04</v>
       </c>
-      <c r="N37" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N37" s="2">
+        <v>5.8</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -3853,8 +3855,8 @@
       <c r="M38">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N38" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N38" s="2">
+        <v>5.8</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -3930,8 +3932,8 @@
       <c r="M39">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N39" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N39" s="2">
+        <v>5.8</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -4007,8 +4009,8 @@
       <c r="M40">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N40" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N40" s="2">
+        <v>5.8</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -4084,8 +4086,8 @@
       <c r="M41">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N41" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N41" s="2">
+        <v>5.8</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -4161,8 +4163,8 @@
       <c r="M42">
         <v>0.03</v>
       </c>
-      <c r="N42" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N42" s="2">
+        <v>5.8</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -4238,8 +4240,8 @@
       <c r="M43">
         <v>0.03</v>
       </c>
-      <c r="N43" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N43" s="2">
+        <v>5.8</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -4315,8 +4317,8 @@
       <c r="M44">
         <v>0.03</v>
       </c>
-      <c r="N44" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N44" s="2">
+        <v>5.8</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -4392,8 +4394,8 @@
       <c r="M45">
         <v>2.7E-2</v>
       </c>
-      <c r="N45" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N45" s="2">
+        <v>5.8</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -4469,8 +4471,8 @@
       <c r="M46">
         <v>2.7E-2</v>
       </c>
-      <c r="N46" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N46" s="2">
+        <v>5.8</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -4546,8 +4548,8 @@
       <c r="M47">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N47" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N47" s="2">
+        <v>5.8</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -4623,8 +4625,8 @@
       <c r="M48">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N48" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N48" s="2">
+        <v>5.8</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -4700,8 +4702,8 @@
       <c r="M49">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N49" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N49" s="2">
+        <v>5.8</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -4777,8 +4779,8 @@
       <c r="M50">
         <v>0.02</v>
       </c>
-      <c r="N50" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N50" s="2">
+        <v>5.8</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -4854,8 +4856,8 @@
       <c r="M51">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N51" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N51" s="2">
+        <v>5.8</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -4931,8 +4933,8 @@
       <c r="M52">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N52" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N52" s="2">
+        <v>5.8</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -5008,8 +5010,8 @@
       <c r="M53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N53" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N53" s="2">
+        <v>5.8</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
@@ -5085,8 +5087,8 @@
       <c r="M54">
         <v>1.6E-2</v>
       </c>
-      <c r="N54" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N54" s="2">
+        <v>5.8</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -5162,8 +5164,8 @@
       <c r="M55">
         <v>1.6E-2</v>
       </c>
-      <c r="N55" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N55" s="2">
+        <v>5.8</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -5239,8 +5241,8 @@
       <c r="M56">
         <v>1.4E-2</v>
       </c>
-      <c r="N56" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N56" s="2">
+        <v>5.8</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
@@ -5316,8 +5318,8 @@
       <c r="M57">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N57" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N57" s="2">
+        <v>5.8</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
@@ -5393,8 +5395,8 @@
       <c r="M58">
         <v>0.01</v>
       </c>
-      <c r="N58" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N58" s="2">
+        <v>5.8</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -5470,8 +5472,8 @@
       <c r="M59">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N59" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N59" s="2">
+        <v>5.8</v>
       </c>
       <c r="O59" t="b">
         <v>0</v>
@@ -5547,8 +5549,8 @@
       <c r="M60">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="N60" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N60" s="2">
+        <v>5.8</v>
       </c>
       <c r="O60" t="b">
         <v>0</v>
@@ -5624,8 +5626,8 @@
       <c r="M61">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N61" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N61" s="2">
+        <v>5.8</v>
       </c>
       <c r="O61" t="b">
         <v>0</v>
@@ -5701,8 +5703,8 @@
       <c r="M62">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N62" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N62" s="2">
+        <v>5.8</v>
       </c>
       <c r="O62" t="b">
         <v>0</v>
@@ -5778,8 +5780,8 @@
       <c r="M63">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="N63" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N63" s="2">
+        <v>5.8</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
@@ -5855,8 +5857,8 @@
       <c r="M64">
         <v>3.3E-3</v>
       </c>
-      <c r="N64" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N64" s="2">
+        <v>5.8</v>
       </c>
       <c r="O64" t="b">
         <v>0</v>
@@ -5932,8 +5934,8 @@
       <c r="M65">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N65" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N65" s="2">
+        <v>5.8</v>
       </c>
       <c r="O65" t="b">
         <v>0</v>
@@ -6009,8 +6011,8 @@
       <c r="M66">
         <v>2E-3</v>
       </c>
-      <c r="N66" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N66" s="2">
+        <v>5.8</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
@@ -6086,8 +6088,8 @@
       <c r="M67">
         <v>1.4E-3</v>
       </c>
-      <c r="N67" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N67" s="2">
+        <v>5.8</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
@@ -6163,8 +6165,8 @@
       <c r="M68">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N68" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N68" s="2">
+        <v>5.8</v>
       </c>
       <c r="O68" t="b">
         <v>0</v>
@@ -6240,8 +6242,8 @@
       <c r="M69">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N69" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N69" s="2">
+        <v>5.8</v>
       </c>
       <c r="O69" t="b">
         <v>0</v>
@@ -6317,8 +6319,8 @@
       <c r="M70">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="N70" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N70" s="2">
+        <v>5.8</v>
       </c>
       <c r="O70" t="b">
         <v>0</v>
@@ -6394,8 +6396,8 @@
       <c r="M71">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="N71" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N71" s="2">
+        <v>5.8</v>
       </c>
       <c r="O71" t="b">
         <v>0</v>
@@ -6471,8 +6473,8 @@
       <c r="M72">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="N72" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N72" s="2">
+        <v>5.8</v>
       </c>
       <c r="O72" t="b">
         <v>0</v>
@@ -6548,8 +6550,8 @@
       <c r="M73">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="N73" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N73" s="2">
+        <v>5.8</v>
       </c>
       <c r="O73" t="b">
         <v>0</v>
@@ -6625,8 +6627,8 @@
       <c r="M74">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="N74" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N74" s="2">
+        <v>5.8</v>
       </c>
       <c r="O74" t="b">
         <v>0</v>
@@ -6702,8 +6704,8 @@
       <c r="M75">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="N75" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N75" s="2">
+        <v>5.8</v>
       </c>
       <c r="O75" t="b">
         <v>0</v>
@@ -6779,8 +6781,8 @@
       <c r="M76">
         <v>1E-4</v>
       </c>
-      <c r="N76" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N76" s="2">
+        <v>5.8</v>
       </c>
       <c r="O76" t="b">
         <v>0</v>
@@ -6853,11 +6855,11 @@
       <c r="L77">
         <v>1.389E-3</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <v>6.3999999999999997E-5</v>
       </c>
-      <c r="N77" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N77" s="2">
+        <v>5.8</v>
       </c>
       <c r="O77" t="b">
         <v>0</v>
@@ -6930,11 +6932,11 @@
       <c r="L78">
         <v>1.4959999999999999E-3</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="N78" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N78" s="2">
+        <v>5.8</v>
       </c>
       <c r="O78" t="b">
         <v>0</v>
@@ -7007,11 +7009,11 @@
       <c r="L79">
         <v>1.1739999999999999E-3</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="1">
         <v>3.4E-5</v>
       </c>
-      <c r="N79" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N79" s="2">
+        <v>5.8</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
@@ -7084,11 +7086,11 @@
       <c r="L80">
         <v>3.3100000000000002E-4</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="1">
         <v>1.2E-5</v>
       </c>
-      <c r="N80" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N80" s="2">
+        <v>5.8</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
@@ -7161,11 +7163,11 @@
       <c r="L81">
         <v>1.4779999999999999E-4</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="1">
         <v>3.1E-6</v>
       </c>
-      <c r="N81" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N81" s="2">
+        <v>5.8</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
@@ -7238,11 +7240,11 @@
       <c r="L82">
         <v>1.019E-4</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="1">
         <v>1.9E-6</v>
       </c>
-      <c r="N82" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N82" s="2">
+        <v>5.8</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
@@ -7315,11 +7317,11 @@
       <c r="L83">
         <v>1.1620000000000001E-4</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="1">
         <v>8.9999999999999996E-7</v>
       </c>
-      <c r="N83" s="1">
-        <v>5.8000000000000003E-2</v>
+      <c r="N83" s="2">
+        <v>5.8</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
